--- a/data/trans_orig/P23_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P23_R-Estudios-trans_orig.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CBE0C36-A472-4A86-A7C6-0E794C78C87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D373DD94-A757-418C-84E7-EBF984D89642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{751BA191-90E0-4F65-B533-DF41FF1C5A51}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{20E07A35-EBD2-4825-9A71-A6E3089663EE}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
-    <sheet name="2023" sheetId="3" r:id="rId2"/>
+    <sheet name="2007" sheetId="2" r:id="rId1"/>
+    <sheet name="2012" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="159">
-  <si>
-    <t>Población que fuma diariamente en 2015 (Tasa respuesta: 99,89%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="161">
+  <si>
+    <t>Población que fuma diariamente en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -72,61 +72,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
   </si>
   <si>
     <t>100%</t>
@@ -135,385 +135,391 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que fuma diariamente en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
+    <t>Población que fuma diariamente en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
   </si>
   <si>
     <t>14,95%</t>
   </si>
   <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
   </si>
   <si>
     <t>85,05%</t>
   </si>
   <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
   </si>
 </sst>
 </file>
@@ -925,7 +931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5F2999-CD3E-4FA8-947E-1908CA60BC08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9683F457-1EE8-46BE-BB3C-8E74CDB6247D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1043,10 +1049,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>200</v>
+        <v>366</v>
       </c>
       <c r="D4" s="7">
-        <v>207828</v>
+        <v>374599</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1058,10 +1064,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="I4" s="7">
-        <v>122604</v>
+        <v>176541</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1073,10 +1079,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>320</v>
+        <v>538</v>
       </c>
       <c r="N4" s="7">
-        <v>330432</v>
+        <v>551140</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1094,10 +1100,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>561</v>
+        <v>671</v>
       </c>
       <c r="D5" s="7">
-        <v>545654</v>
+        <v>656082</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1109,10 +1115,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>770</v>
+        <v>1119</v>
       </c>
       <c r="I5" s="7">
-        <v>869662</v>
+        <v>1138572</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1124,10 +1130,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1331</v>
+        <v>1790</v>
       </c>
       <c r="N5" s="7">
-        <v>1415316</v>
+        <v>1794653</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1145,10 +1151,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>761</v>
+        <v>1037</v>
       </c>
       <c r="D6" s="7">
-        <v>753482</v>
+        <v>1030681</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1160,10 +1166,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>890</v>
+        <v>1291</v>
       </c>
       <c r="I6" s="7">
-        <v>992266</v>
+        <v>1315113</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1175,10 +1181,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1651</v>
+        <v>2328</v>
       </c>
       <c r="N6" s="7">
-        <v>1745748</v>
+        <v>2345793</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1198,10 +1204,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>701</v>
+        <v>798</v>
       </c>
       <c r="D7" s="7">
-        <v>756395</v>
+        <v>817806</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1213,10 +1219,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>599</v>
+        <v>540</v>
       </c>
       <c r="I7" s="7">
-        <v>619207</v>
+        <v>548055</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1228,10 +1234,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>1300</v>
+        <v>1338</v>
       </c>
       <c r="N7" s="7">
-        <v>1375601</v>
+        <v>1365862</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1249,10 +1255,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1251</v>
+        <v>851</v>
       </c>
       <c r="D8" s="7">
-        <v>1319990</v>
+        <v>875606</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1264,10 +1270,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>1307</v>
+        <v>1014</v>
       </c>
       <c r="I8" s="7">
-        <v>1366977</v>
+        <v>1039618</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1279,10 +1285,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>2558</v>
+        <v>1865</v>
       </c>
       <c r="N8" s="7">
-        <v>2686967</v>
+        <v>1915224</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1300,10 +1306,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1952</v>
+        <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>2076385</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1315,10 +1321,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>1906</v>
+        <v>1554</v>
       </c>
       <c r="I9" s="7">
-        <v>1986184</v>
+        <v>1587673</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1330,10 +1336,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>3858</v>
+        <v>3203</v>
       </c>
       <c r="N9" s="7">
-        <v>4062568</v>
+        <v>3281086</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1353,10 +1359,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="D10" s="7">
-        <v>118286</v>
+        <v>192876</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1368,10 +1374,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="I10" s="7">
-        <v>102354</v>
+        <v>138734</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1383,10 +1389,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>203</v>
+        <v>318</v>
       </c>
       <c r="N10" s="7">
-        <v>220640</v>
+        <v>331609</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1404,10 +1410,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>396</v>
+        <v>342</v>
       </c>
       <c r="D11" s="7">
-        <v>427528</v>
+        <v>358532</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1419,10 +1425,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>426</v>
+        <v>319</v>
       </c>
       <c r="I11" s="7">
-        <v>445859</v>
+        <v>337678</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1434,10 +1440,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>822</v>
+        <v>661</v>
       </c>
       <c r="N11" s="7">
-        <v>873387</v>
+        <v>696211</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1455,10 +1461,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>500</v>
+        <v>527</v>
       </c>
       <c r="D12" s="7">
-        <v>545814</v>
+        <v>551408</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1470,10 +1476,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>525</v>
+        <v>452</v>
       </c>
       <c r="I12" s="7">
-        <v>548213</v>
+        <v>476412</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1485,10 +1491,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1025</v>
+        <v>979</v>
       </c>
       <c r="N12" s="7">
-        <v>1094027</v>
+        <v>1027820</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1508,10 +1514,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1005</v>
+        <v>1349</v>
       </c>
       <c r="D13" s="7">
-        <v>1082508</v>
+        <v>1385281</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1523,34 +1529,34 @@
         <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>818</v>
+        <v>845</v>
       </c>
       <c r="I13" s="7">
-        <v>844165</v>
+        <v>863330</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>1823</v>
+        <v>2194</v>
       </c>
       <c r="N13" s="7">
-        <v>1926673</v>
+        <v>2248612</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1559,49 +1565,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2208</v>
+        <v>1864</v>
       </c>
       <c r="D14" s="7">
-        <v>2293173</v>
+        <v>1890220</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>2503</v>
+        <v>2452</v>
       </c>
       <c r="I14" s="7">
-        <v>2682497</v>
+        <v>2515868</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>4711</v>
+        <v>4316</v>
       </c>
       <c r="N14" s="7">
-        <v>4975670</v>
+        <v>4406087</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1613,7 +1619,7 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3375681</v>
+        <v>3275501</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1625,10 +1631,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>3321</v>
+        <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3526662</v>
+        <v>3379198</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1640,10 +1646,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>6534</v>
+        <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6902343</v>
+        <v>6654699</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1657,7 +1663,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1676,7 +1682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6A1B60-856D-424A-B7C9-78AF11AA772A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA7EC83-7631-48E3-BF8A-16AC8CB0C007}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1693,7 +1699,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1794,49 +1800,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>157</v>
+        <v>318</v>
       </c>
       <c r="D4" s="7">
-        <v>140183</v>
+        <v>335005</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="I4" s="7">
-        <v>78661</v>
+        <v>200037</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
-        <v>280</v>
+        <v>504</v>
       </c>
       <c r="N4" s="7">
-        <v>218844</v>
+        <v>535042</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1845,49 +1851,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>534</v>
+        <v>590</v>
       </c>
       <c r="D5" s="7">
-        <v>401451</v>
+        <v>639638</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>1304</v>
+        <v>1061</v>
       </c>
       <c r="I5" s="7">
-        <v>757292</v>
+        <v>1137759</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
-        <v>1838</v>
+        <v>1651</v>
       </c>
       <c r="N5" s="7">
-        <v>1158742</v>
+        <v>1777398</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1896,10 +1902,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>691</v>
+        <v>908</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>974643</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1911,10 +1917,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1427</v>
+        <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>1337796</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1926,10 +1932,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>2118</v>
+        <v>2155</v>
       </c>
       <c r="N6" s="7">
-        <v>1377586</v>
+        <v>2312440</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1949,49 +1955,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>506</v>
+        <v>802</v>
       </c>
       <c r="D7" s="7">
-        <v>551879</v>
+        <v>854986</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="I7" s="7">
-        <v>462307</v>
+        <v>636811</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
-        <v>1108</v>
+        <v>1387</v>
       </c>
       <c r="N7" s="7">
-        <v>1014185</v>
+        <v>1491796</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,49 +2006,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1484</v>
+        <v>1053</v>
       </c>
       <c r="D8" s="7">
-        <v>1607875</v>
+        <v>1107942</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
-        <v>2317</v>
+        <v>1048</v>
       </c>
       <c r="I8" s="7">
-        <v>1785773</v>
+        <v>1119010</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
-        <v>3801</v>
+        <v>2101</v>
       </c>
       <c r="N8" s="7">
-        <v>3393649</v>
+        <v>2226952</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2051,10 +2057,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1990</v>
+        <v>1855</v>
       </c>
       <c r="D9" s="7">
-        <v>2159754</v>
+        <v>1962928</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2066,10 +2072,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>2919</v>
+        <v>1633</v>
       </c>
       <c r="I9" s="7">
-        <v>2248080</v>
+        <v>1755821</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2081,10 +2087,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>4909</v>
+        <v>3488</v>
       </c>
       <c r="N9" s="7">
-        <v>4407834</v>
+        <v>3718748</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2104,49 +2110,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="D10" s="7">
-        <v>95317</v>
+        <v>161436</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I10" s="7">
-        <v>90394</v>
+        <v>139422</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="N10" s="7">
-        <v>185711</v>
+        <v>300858</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,49 +2161,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>589</v>
+        <v>292</v>
       </c>
       <c r="D11" s="7">
-        <v>577722</v>
+        <v>319745</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
-        <v>881</v>
+        <v>285</v>
       </c>
       <c r="I11" s="7">
-        <v>620695</v>
+        <v>319209</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
-        <v>1470</v>
+        <v>577</v>
       </c>
       <c r="N11" s="7">
-        <v>1198417</v>
+        <v>638954</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2206,10 +2212,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>681</v>
+        <v>438</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>481181</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2221,10 +2227,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1003</v>
+        <v>412</v>
       </c>
       <c r="I12" s="7">
-        <v>711089</v>
+        <v>458631</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2236,10 +2242,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1684</v>
+        <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>1384128</v>
+        <v>939812</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2259,49 +2265,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>755</v>
+        <v>1266</v>
       </c>
       <c r="D13" s="7">
-        <v>787379</v>
+        <v>1351427</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
-        <v>847</v>
+        <v>898</v>
       </c>
       <c r="I13" s="7">
-        <v>631362</v>
+        <v>976270</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
-        <v>1602</v>
+        <v>2164</v>
       </c>
       <c r="N13" s="7">
-        <v>1418741</v>
+        <v>2327697</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2310,49 +2316,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2607</v>
+        <v>1935</v>
       </c>
       <c r="D14" s="7">
-        <v>2587048</v>
+        <v>2067325</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
-        <v>4502</v>
+        <v>2394</v>
       </c>
       <c r="I14" s="7">
-        <v>3163760</v>
+        <v>2575978</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
-        <v>7109</v>
+        <v>4329</v>
       </c>
       <c r="N14" s="7">
-        <v>5750808</v>
+        <v>4643303</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,10 +2367,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3362</v>
+        <v>3201</v>
       </c>
       <c r="D15" s="7">
-        <v>3374427</v>
+        <v>3418752</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2376,10 +2382,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>5349</v>
+        <v>3292</v>
       </c>
       <c r="I15" s="7">
-        <v>3795122</v>
+        <v>3552248</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2391,10 +2397,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>8711</v>
+        <v>6493</v>
       </c>
       <c r="N15" s="7">
-        <v>7169549</v>
+        <v>6971000</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2408,7 +2414,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P23_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P23_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D373DD94-A757-418C-84E7-EBF984D89642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3B70048-BDC9-4F2D-B85D-08C5EF4467DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{20E07A35-EBD2-4825-9A71-A6E3089663EE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{12A33A28-3307-4C3B-B56A-B6C29FE6096A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -75,28 +75,28 @@
     <t>36,34%</t>
   </si>
   <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
   </si>
   <si>
     <t>13,42%</t>
   </si>
   <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
   </si>
   <si>
     <t>23,49%</t>
   </si>
   <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>63,66%</t>
   </si>
   <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
   </si>
   <si>
     <t>86,58%</t>
   </si>
   <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
   </si>
   <si>
     <t>76,51%</t>
   </si>
   <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
   </si>
   <si>
     <t>100%</t>
@@ -141,31 +141,31 @@
     <t>45,89%</t>
   </si>
   <si>
-    <t>50,76%</t>
+    <t>50,73%</t>
   </si>
   <si>
     <t>34,52%</t>
   </si>
   <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
   </si>
   <si>
     <t>41,63%</t>
   </si>
   <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
   </si>
   <si>
     <t>51,71%</t>
   </si>
   <si>
-    <t>49,24%</t>
+    <t>49,27%</t>
   </si>
   <si>
     <t>54,11%</t>
@@ -174,19 +174,19 @@
     <t>65,48%</t>
   </si>
   <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
   </si>
   <si>
     <t>58,37%</t>
   </si>
   <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -195,79 +195,79 @@
     <t>34,98%</t>
   </si>
   <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
   </si>
   <si>
     <t>29,12%</t>
   </si>
   <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
   </si>
   <si>
     <t>32,26%</t>
   </si>
   <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
   </si>
   <si>
     <t>65,02%</t>
   </si>
   <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
   </si>
   <si>
     <t>70,88%</t>
   </si>
   <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
   </si>
   <si>
     <t>67,74%</t>
   </si>
   <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
   </si>
   <si>
     <t>42,29%</t>
   </si>
   <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
   </si>
   <si>
     <t>25,55%</t>
   </si>
   <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
   </si>
   <si>
     <t>33,79%</t>
   </si>
   <si>
-    <t>32,55%</t>
+    <t>32,66%</t>
   </si>
   <si>
     <t>35,01%</t>
@@ -276,19 +276,19 @@
     <t>57,71%</t>
   </si>
   <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
   </si>
   <si>
     <t>74,45%</t>
   </si>
   <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
   </si>
   <si>
     <t>66,21%</t>
@@ -297,7 +297,7 @@
     <t>64,99%</t>
   </si>
   <si>
-    <t>67,45%</t>
+    <t>67,34%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -309,109 +309,109 @@
     <t>34,37%</t>
   </si>
   <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
   </si>
   <si>
     <t>14,95%</t>
   </si>
   <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
   </si>
   <si>
     <t>23,14%</t>
   </si>
   <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
   </si>
   <si>
     <t>65,63%</t>
   </si>
   <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
   </si>
   <si>
     <t>85,05%</t>
   </si>
   <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
   </si>
   <si>
     <t>76,86%</t>
   </si>
   <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
   </si>
   <si>
     <t>43,56%</t>
   </si>
   <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
   </si>
   <si>
     <t>36,27%</t>
   </si>
   <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
   </si>
   <si>
     <t>40,12%</t>
   </si>
   <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
   </si>
   <si>
     <t>56,44%</t>
   </si>
   <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
   </si>
   <si>
     <t>63,73%</t>
   </si>
   <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
   </si>
   <si>
     <t>59,88%</t>
   </si>
   <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
   </si>
   <si>
     <t>33,55%</t>
@@ -420,31 +420,31 @@
     <t>29,06%</t>
   </si>
   <si>
-    <t>38,29%</t>
+    <t>38,22%</t>
   </si>
   <si>
     <t>30,4%</t>
   </si>
   <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
   </si>
   <si>
     <t>32,01%</t>
   </si>
   <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
   </si>
   <si>
     <t>66,45%</t>
   </si>
   <si>
-    <t>61,71%</t>
+    <t>61,78%</t>
   </si>
   <si>
     <t>70,94%</t>
@@ -453,73 +453,73 @@
     <t>69,6%</t>
   </si>
   <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
   </si>
   <si>
     <t>67,99%</t>
   </si>
   <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
   </si>
   <si>
     <t>39,53%</t>
   </si>
   <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
   </si>
   <si>
     <t>27,48%</t>
   </si>
   <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
   </si>
   <si>
     <t>33,39%</t>
   </si>
   <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
   </si>
   <si>
     <t>60,47%</t>
   </si>
   <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
   </si>
   <si>
     <t>72,52%</t>
   </si>
   <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
   </si>
   <si>
     <t>66,61%</t>
   </si>
   <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
   </si>
 </sst>
 </file>
@@ -931,7 +931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9683F457-1EE8-46BE-BB3C-8E74CDB6247D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8866C188-59DB-4764-AF5F-02D46B728B05}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1207,7 +1207,7 @@
         <v>798</v>
       </c>
       <c r="D7" s="7">
-        <v>817806</v>
+        <v>817807</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1309,7 +1309,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1682,7 +1682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA7EC83-7631-48E3-BF8A-16AC8CB0C007}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78FE4F2-1084-4580-9C3B-1B66C85FF0C3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P23_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P23_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3B70048-BDC9-4F2D-B85D-08C5EF4467DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1EE1D81-2472-4249-A360-BE8100EAC0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{12A33A28-3307-4C3B-B56A-B6C29FE6096A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{31146AEE-E81B-4510-AF75-C65F22B62074}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="159">
   <si>
     <t>Población que fuma diariamente en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -75,10 +75,10 @@
     <t>36,34%</t>
   </si>
   <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
   </si>
   <si>
     <t>13,42%</t>
@@ -87,16 +87,16 @@
     <t>11,63%</t>
   </si>
   <si>
-    <t>15,29%</t>
+    <t>15,47%</t>
   </si>
   <si>
     <t>23,49%</t>
   </si>
   <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,16 +105,16 @@
     <t>63,66%</t>
   </si>
   <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
   </si>
   <si>
     <t>86,58%</t>
   </si>
   <si>
-    <t>84,71%</t>
+    <t>84,53%</t>
   </si>
   <si>
     <t>88,37%</t>
@@ -123,10 +123,10 @@
     <t>76,51%</t>
   </si>
   <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>48,29%</t>
   </si>
   <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
   </si>
   <si>
     <t>34,52%</t>
   </si>
   <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
   </si>
   <si>
     <t>41,63%</t>
   </si>
   <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
   </si>
   <si>
     <t>51,71%</t>
   </si>
   <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
   </si>
   <si>
     <t>65,48%</t>
   </si>
   <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
   </si>
   <si>
     <t>58,37%</t>
   </si>
   <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -195,73 +195,73 @@
     <t>34,98%</t>
   </si>
   <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
   </si>
   <si>
     <t>29,12%</t>
   </si>
   <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
   </si>
   <si>
     <t>32,26%</t>
   </si>
   <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
   </si>
   <si>
     <t>65,02%</t>
   </si>
   <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
   </si>
   <si>
     <t>70,88%</t>
   </si>
   <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
   </si>
   <si>
     <t>67,74%</t>
   </si>
   <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
   </si>
   <si>
     <t>42,29%</t>
   </si>
   <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
   </si>
   <si>
     <t>25,55%</t>
   </si>
   <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
   </si>
   <si>
     <t>33,79%</t>
@@ -270,31 +270,31 @@
     <t>32,66%</t>
   </si>
   <si>
-    <t>35,01%</t>
+    <t>34,94%</t>
   </si>
   <si>
     <t>57,71%</t>
   </si>
   <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
   </si>
   <si>
     <t>74,45%</t>
   </si>
   <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
   </si>
   <si>
     <t>66,21%</t>
   </si>
   <si>
-    <t>64,99%</t>
+    <t>65,06%</t>
   </si>
   <si>
     <t>67,34%</t>
@@ -312,31 +312,31 @@
     <t>31,14%</t>
   </si>
   <si>
-    <t>37,53%</t>
+    <t>37,44%</t>
   </si>
   <si>
     <t>14,95%</t>
   </si>
   <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
   </si>
   <si>
     <t>23,14%</t>
   </si>
   <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
   </si>
   <si>
     <t>65,63%</t>
   </si>
   <si>
-    <t>62,47%</t>
+    <t>62,56%</t>
   </si>
   <si>
     <t>68,86%</t>
@@ -345,34 +345,34 @@
     <t>85,05%</t>
   </si>
   <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
   </si>
   <si>
     <t>76,86%</t>
   </si>
   <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
   </si>
   <si>
     <t>43,56%</t>
   </si>
   <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
   </si>
   <si>
     <t>36,27%</t>
   </si>
   <si>
-    <t>33,82%</t>
+    <t>34,11%</t>
   </si>
   <si>
     <t>38,53%</t>
@@ -381,19 +381,19 @@
     <t>40,12%</t>
   </si>
   <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
   </si>
   <si>
     <t>56,44%</t>
   </si>
   <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
   </si>
   <si>
     <t>63,73%</t>
@@ -402,124 +402,118 @@
     <t>61,47%</t>
   </si>
   <si>
-    <t>66,18%</t>
+    <t>65,89%</t>
   </si>
   <si>
     <t>59,88%</t>
   </si>
   <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
   </si>
   <si>
     <t>33,55%</t>
   </si>
   <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
   </si>
   <si>
     <t>30,4%</t>
   </si>
   <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
   </si>
   <si>
     <t>32,01%</t>
   </si>
   <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
   </si>
   <si>
     <t>66,45%</t>
   </si>
   <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
   </si>
   <si>
     <t>69,6%</t>
   </si>
   <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
   </si>
   <si>
     <t>67,99%</t>
   </si>
   <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
   </si>
   <si>
     <t>39,53%</t>
   </si>
   <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
   </si>
   <si>
     <t>27,48%</t>
   </si>
   <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
+    <t>29,07%</t>
   </si>
   <si>
     <t>33,39%</t>
   </si>
   <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
   </si>
   <si>
     <t>60,47%</t>
   </si>
   <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
   </si>
   <si>
     <t>72,52%</t>
   </si>
   <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
+    <t>70,93%</t>
   </si>
   <si>
     <t>66,61%</t>
   </si>
   <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
   </si>
 </sst>
 </file>
@@ -931,7 +925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8866C188-59DB-4764-AF5F-02D46B728B05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE605DB3-C826-489F-A5CF-42A0B805A204}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1082,7 +1076,7 @@
         <v>538</v>
       </c>
       <c r="N4" s="7">
-        <v>551140</v>
+        <v>551141</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1184,7 +1178,7 @@
         <v>2328</v>
       </c>
       <c r="N6" s="7">
-        <v>2345793</v>
+        <v>2345794</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1207,7 +1201,7 @@
         <v>798</v>
       </c>
       <c r="D7" s="7">
-        <v>817807</v>
+        <v>817806</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1309,7 +1303,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1547,7 +1541,7 @@
         <v>2194</v>
       </c>
       <c r="N13" s="7">
-        <v>2248612</v>
+        <v>2248611</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1649,7 +1643,7 @@
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654699</v>
+        <v>6654698</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1682,7 +1676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78FE4F2-1084-4580-9C3B-1B66C85FF0C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B9B6F0-A5F7-4CFA-9ECB-2C028364948B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2289,10 +2283,10 @@
         <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>2164</v>
@@ -2301,13 +2295,13 @@
         <v>2327697</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,13 +2316,13 @@
         <v>2067325</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>2394</v>
@@ -2337,13 +2331,13 @@
         <v>2575978</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="M14" s="7">
         <v>4329</v>
@@ -2352,13 +2346,13 @@
         <v>4643303</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P23_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P23_R-Estudios-trans_orig.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1EE1D81-2472-4249-A360-BE8100EAC0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2FB1CC7-DC38-4AAF-B773-A91D269548A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{31146AEE-E81B-4510-AF75-C65F22B62074}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1CF23475-26AB-43A9-937A-B44EE4239E19}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="159">
-  <si>
-    <t>Población que fuma diariamente en 2007 (Tasa respuesta: 99,98%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="230">
+  <si>
+    <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016) en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -303,7 +304,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que fuma diariamente en 2012 (Tasa respuesta: 99,95%)</t>
+    <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016) en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
     <t>34,37%</t>
@@ -514,6 +515,219 @@
   </si>
   <si>
     <t>67,79%</t>
+  </si>
+  <si>
+    <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016) en 2016 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
   </si>
 </sst>
 </file>
@@ -925,7 +1139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE605DB3-C826-489F-A5CF-42A0B805A204}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F2071B-9CF8-48B5-B11D-D60D88A9D775}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1076,7 +1290,7 @@
         <v>538</v>
       </c>
       <c r="N4" s="7">
-        <v>551141</v>
+        <v>551140</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1178,7 +1392,7 @@
         <v>2328</v>
       </c>
       <c r="N6" s="7">
-        <v>2345794</v>
+        <v>2345793</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1201,7 +1415,7 @@
         <v>798</v>
       </c>
       <c r="D7" s="7">
-        <v>817806</v>
+        <v>817807</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1303,7 +1517,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1577,7 +1791,7 @@
         <v>2452</v>
       </c>
       <c r="I14" s="7">
-        <v>2515868</v>
+        <v>2515867</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1628,7 +1842,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1676,7 +1890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B9B6F0-A5F7-4CFA-9ECB-2C028364948B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3983051A-7900-45F0-9E46-A7AFF3B564BA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1863,7 +2077,7 @@
         <v>1061</v>
       </c>
       <c r="I5" s="7">
-        <v>1137759</v>
+        <v>1137760</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>101</v>
@@ -1914,7 +2128,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2188,7 +2402,7 @@
         <v>577</v>
       </c>
       <c r="N11" s="7">
-        <v>638954</v>
+        <v>638955</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>140</v>
@@ -2239,7 +2453,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2395,6 +2609,757 @@
       </c>
       <c r="N15" s="7">
         <v>6971000</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23D0195-69B4-4078-85CB-87B6FAD8C218}">
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>217</v>
+      </c>
+      <c r="D4" s="7">
+        <v>225165</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" s="7">
+        <v>132</v>
+      </c>
+      <c r="I4" s="7">
+        <v>136215</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M4" s="7">
+        <v>349</v>
+      </c>
+      <c r="N4" s="7">
+        <v>361381</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>544</v>
+      </c>
+      <c r="D5" s="7">
+        <v>528317</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" s="7">
+        <v>758</v>
+      </c>
+      <c r="I5" s="7">
+        <v>856051</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1302</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1384367</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>761</v>
+      </c>
+      <c r="D6" s="7">
+        <v>753482</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>890</v>
+      </c>
+      <c r="I6" s="7">
+        <v>992266</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1651</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1745748</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>756</v>
+      </c>
+      <c r="D7" s="7">
+        <v>814615</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H7" s="7">
+        <v>641</v>
+      </c>
+      <c r="I7" s="7">
+        <v>661912</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1397</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1476527</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1196</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1261770</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1265</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1324272</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M8" s="7">
+        <v>2461</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2586041</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1952</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2076385</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1906</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1986184</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>3858</v>
+      </c>
+      <c r="N9" s="7">
+        <v>4062568</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>124</v>
+      </c>
+      <c r="D10" s="7">
+        <v>139294</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" s="7">
+        <v>118</v>
+      </c>
+      <c r="I10" s="7">
+        <v>121996</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="M10" s="7">
+        <v>242</v>
+      </c>
+      <c r="N10" s="7">
+        <v>261290</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>376</v>
+      </c>
+      <c r="D11" s="7">
+        <v>406520</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H11" s="7">
+        <v>407</v>
+      </c>
+      <c r="I11" s="7">
+        <v>426217</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M11" s="7">
+        <v>783</v>
+      </c>
+      <c r="N11" s="7">
+        <v>832737</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>500</v>
+      </c>
+      <c r="D12" s="7">
+        <v>545814</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>525</v>
+      </c>
+      <c r="I12" s="7">
+        <v>548213</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1025</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1094027</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1097</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1179074</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H13" s="7">
+        <v>891</v>
+      </c>
+      <c r="I13" s="7">
+        <v>920123</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1988</v>
+      </c>
+      <c r="N13" s="7">
+        <v>2099197</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2116</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2196607</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2430</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2606539</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M14" s="7">
+        <v>4546</v>
+      </c>
+      <c r="N14" s="7">
+        <v>4803146</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3213</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3375681</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>3321</v>
+      </c>
+      <c r="I15" s="7">
+        <v>3526662</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>6534</v>
+      </c>
+      <c r="N15" s="7">
+        <v>6902343</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
